--- a/template Excel/Accountting/Reason.xlsx
+++ b/template Excel/Accountting/Reason.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEF22BF-45E2-4DAF-AF5C-B90906C3F782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AF1BE-B3D4-4046-9167-3F089B93C2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F5D6E8E0-37D0-4C14-B03E-7F9CB0C42352}"/>
   </bookViews>
@@ -459,9 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA6606E-B4E7-4645-A71B-32C781343FE1}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
